--- a/一季度.xlsx
+++ b/一季度.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\princess\pyton-study-own\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\princess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7712EE-5647-4A12-B5BC-612ED87EE0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6CF3A-4E75-4173-975C-AD642B7B12DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1836" yWindow="2292" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一季度汇总表" sheetId="1" r:id="rId1"/>
@@ -35,47 +35,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3月马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
+    <t>周老师1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周老师10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月薅羊毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -417,34 +417,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>77</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>33</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>92</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>59</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>57</v>
